--- a/data/resumes_scrubbed/confirmations/100_2.xlsx
+++ b/data/resumes_scrubbed/confirmations/100_2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4a41d8b392a254fb/Documents/Career/Portfolio Projects/Congressional Data Scrape and Validation/data/resumes_scrubbed/confirmations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{AE1D92BF-D7E8-4C71-B241-DB3825C062C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="207" documentId="8_{88EB4797-0725-4CBE-A447-97A800E2B01C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{46365B7D-45A5-40B2-96AE-5647498ABE23}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="100_2" sheetId="1" r:id="rId1"/>
@@ -20,15 +20,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="23">
-  <si>
-    <t>Summary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     New nominations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     Carryover nominations</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+  <si>
+    <t xml:space="preserve">Civilian </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Air Force </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Army </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Navy </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marine Corps </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total confirmed </t>
+  </si>
+  <si>
+    <t>Total unconfirmed</t>
+  </si>
+  <si>
+    <t>Total withdrawn</t>
   </si>
   <si>
     <t>Labels</t>
@@ -49,52 +64,97 @@
     <t>End Date</t>
   </si>
   <si>
-    <t>Civilian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     Confirmed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     Unconfirmed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     Withdrawn</t>
+    <t xml:space="preserve">     Civilian, New nominations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Civilian, Carryover nominations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Civilian, Confirmed  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Civilian, Unconfirmed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Civilian, Withdrawn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Air Force, New nominations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Air Force, Carryover nominations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Air Force, Confirmed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Army, New nominations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Army, Carryover nominations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Army, Confirmed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Army, Unconfirmed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Army, Withdrawn  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Navy, New nominations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Navy, Carryover nominations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Navy, Confirmed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Navy, Unconfirmed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Navy, Withdrawn  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Marine Corps, New nominations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Marine Corps, Carryover nominations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Marine Corps, Confirmed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Marine Corps, Unconfirmed</t>
+  </si>
+  <si>
+    <t>Total carryover nominations</t>
+  </si>
+  <si>
+    <t>Total new nominations</t>
   </si>
   <si>
     <t>Civilian (lists)</t>
   </si>
   <si>
-    <t>Air Force</t>
-  </si>
-  <si>
-    <t>Army</t>
-  </si>
-  <si>
-    <t>Navy</t>
-  </si>
-  <si>
-    <t>Total nominations carried over from the first session</t>
-  </si>
-  <si>
-    <t>Total nominations received this session</t>
-  </si>
-  <si>
-    <t>Total confirmed</t>
-  </si>
-  <si>
-    <t>Total unconfirmed</t>
-  </si>
-  <si>
-    <t>Total withdrawn</t>
-  </si>
-  <si>
-    <t>Marine Corps</t>
+    <t xml:space="preserve">     Civilian (lists), New nominations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Civilian (lists), Carryover nominations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Civilian (lists), Confirmed  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Civilian (lists), Unconfirmed  </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -572,8 +632,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -639,6 +702,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -957,337 +1024,326 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B43"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="60.69921875" customWidth="1"/>
-    <col min="2" max="2" width="15.69921875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="60.69921875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.69921875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>4</v>
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="1">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="2">
         <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="1">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="3">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="4">
         <v>32167</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="3">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="4">
         <v>32438</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>9</v>
+      <c r="A6" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="1">
+      <c r="A7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="2">
         <v>404</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="1">
+      <c r="A8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="2">
         <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="1">
+      <c r="A9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="2">
         <v>335</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="2">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="2">
         <v>11</v>
       </c>
-      <c r="B10" s="1">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="1">
-        <v>11</v>
-      </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>13</v>
+      <c r="A12" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>1</v>
+      <c r="A13" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="B13" s="2">
         <v>2266</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B14" s="1">
+      <c r="A14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="2">
         <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="2">
+      <c r="A15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="3">
         <v>2022</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" s="1">
+      <c r="A16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="2">
         <v>254</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>14</v>
+      <c r="A17" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>1</v>
+      <c r="A18" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="B18" s="2">
         <v>12349</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>2</v>
+      <c r="A19" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="B19" s="2">
         <v>2955</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" s="2">
+      <c r="A20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="3">
         <v>15304</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>15</v>
+      <c r="A21" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>1</v>
+      <c r="A22" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="B22" s="2">
         <v>10500</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>2</v>
+      <c r="A23" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="B23" s="2">
         <v>2361</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>10</v>
-      </c>
-      <c r="B24" s="2">
+      <c r="A24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="3">
         <v>12858</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>11</v>
-      </c>
-      <c r="B25" s="1">
+      <c r="A25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>12</v>
-      </c>
-      <c r="B26" s="1">
-        <v>1</v>
+      <c r="A26" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>16</v>
-      </c>
-      <c r="B27" s="2"/>
+      <c r="A27" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>1</v>
+      <c r="A28" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="B28" s="2">
         <v>10159</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>2</v>
+      <c r="A29" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="B29" s="2">
         <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>10</v>
-      </c>
-      <c r="B30" s="2">
+      <c r="A30" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="3">
         <v>10203</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>11</v>
-      </c>
-      <c r="B31" s="1">
+      <c r="A31" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>12</v>
+      <c r="A32" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>22</v>
+      <c r="A33" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>1</v>
+      <c r="A34" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="B34" s="2">
         <v>1586</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>2</v>
+      <c r="A35" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="B35" s="2">
         <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>10</v>
-      </c>
-      <c r="B36" s="2">
+      <c r="A36" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" s="3">
         <v>1595</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>11</v>
-      </c>
-      <c r="B37" s="1">
-        <v>1</v>
+      <c r="A37" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>0</v>
+      <c r="A38" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38" s="3">
+        <v>37264</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>17</v>
-      </c>
-      <c r="B39" s="2">
+      <c r="A39" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B39" s="3">
         <v>5494</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>18</v>
-      </c>
-      <c r="B40" s="2">
-        <v>37264</v>
+      <c r="A40" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40" s="3">
+        <v>42317</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>19</v>
+      <c r="A41" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="B41" s="2">
-        <v>42317</v>
+        <v>428</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>20</v>
-      </c>
-      <c r="B42" s="1">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>21</v>
-      </c>
-      <c r="B43" s="1">
+      <c r="A42" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B42" s="2">
         <v>13</v>
       </c>
     </row>

--- a/data/resumes_scrubbed/confirmations/100_2.xlsx
+++ b/data/resumes_scrubbed/confirmations/100_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4a41d8b392a254fb/Documents/Career/Portfolio Projects/Congressional Data Scrape and Validation/data/resumes_scrubbed/confirmations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="207" documentId="8_{88EB4797-0725-4CBE-A447-97A800E2B01C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{46365B7D-45A5-40B2-96AE-5647498ABE23}"/>
+  <xr:revisionPtr revIDLastSave="210" documentId="8_{88EB4797-0725-4CBE-A447-97A800E2B01C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3A57A570-0071-4BAA-9E5A-5ED4FD81D429}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="100_2" sheetId="1" r:id="rId1"/>
@@ -1028,9 +1028,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:B42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1230,6 +1228,9 @@
       <c r="A26" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="B26" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
@@ -1272,6 +1273,9 @@
       <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="B32" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
@@ -1305,6 +1309,9 @@
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>35</v>
+      </c>
+      <c r="B37" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
